--- a/Final Results/Results.xlsx
+++ b/Final Results/Results.xlsx
@@ -1,14 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21425"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{31CA51FE-2664-4AD8-AAD1-7B470B54A422}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F47C7AED-0E38-4C01-99C7-545D8CCFD617}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1152" yWindow="0" windowWidth="18576" windowHeight="12360" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -20,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="334" uniqueCount="55">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="353" uniqueCount="61">
   <si>
     <t>Accuracy</t>
   </si>
@@ -71,9 +72,6 @@
   </si>
   <si>
     <t>BayesNet</t>
-  </si>
-  <si>
-    <t>Data with Missing values removed &gt; 0.019% per feature</t>
   </si>
   <si>
     <t>Data with Categorical values for missing values (replaced with -1)</t>
@@ -172,12 +170,6 @@
     <t>Stacking(RF + NB) (meta: J48)</t>
   </si>
   <si>
-    <t>Stacking (NB + BN) (SimpleLogistic)</t>
-  </si>
-  <si>
-    <t>Voting( NB + RF + SL) Maj/Avg</t>
-  </si>
-  <si>
     <t>Voting(RF+NB+SL+J48) AVG</t>
   </si>
   <si>
@@ -186,12 +178,39 @@
   <si>
     <t>Computer Network Amico Improvement By Pawan Yadav</t>
   </si>
+  <si>
+    <t>Data with Missing values removed &gt; 1.9% per feature</t>
+  </si>
+  <si>
+    <t>Original Accuracy</t>
+  </si>
+  <si>
+    <t>Accuracy (cols &gt;1.9%mv rmvd)</t>
+  </si>
+  <si>
+    <t>Accuracy (extra cols)</t>
+  </si>
+  <si>
+    <t>Original F-Measure</t>
+  </si>
+  <si>
+    <t>F-Measure (cols &gt;1.9%mv rmvd)</t>
+  </si>
+  <si>
+    <t>F-Measure (extra cols)</t>
+  </si>
+  <si>
+    <t>Stacking (NB + BN) (SL)</t>
+  </si>
+  <si>
+    <t>Voting ( NB + RF + SL) Maj/Avg</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -215,8 +234,23 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="6">
+  <fills count="8">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -247,8 +281,20 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor theme="4"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.79998168889431442"/>
+        <bgColor theme="4" tint="0.79998168889431442"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="4">
     <border>
       <left/>
       <right/>
@@ -256,14 +302,53 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color theme="4" tint="0.39997558519241921"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color theme="4" tint="0.39997558519241921"/>
+      </top>
+      <bottom style="thin">
+        <color theme="4" tint="0.39997558519241921"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4" tint="0.39997558519241921"/>
+      </top>
+      <bottom style="thin">
+        <color theme="4" tint="0.39997558519241921"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color theme="4" tint="0.39997558519241921"/>
+      </right>
+      <top style="thin">
+        <color theme="4" tint="0.39997558519241921"/>
+      </top>
+      <bottom style="thin">
+        <color theme="4" tint="0.39997558519241921"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="9" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="21">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -282,11 +367,78 @@
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Percent" xfId="1" builtinId="5"/>
   </cellStyles>
-  <dxfs count="0"/>
+  <dxfs count="3">
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color theme="4" tint="0.39997558519241921"/>
+        </left>
+        <right/>
+        <top style="thin">
+          <color theme="4" tint="0.39997558519241921"/>
+        </top>
+        <bottom style="thin">
+          <color theme="4" tint="0.39997558519241921"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+  </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
@@ -297,6 +449,5179 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$C$47</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Area Under ROC</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>Sheet1!$A$48:$A$55</c:f>
+              <c:strCache>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>Random Forest</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>J48</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Naïve Bayes</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Simple Logistic</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>BayesNet</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>Stacking (NB + BN) (SL)</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>Voting ( NB + RF + SL) Maj/Avg</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$C$48:$C$55</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>0.99680000000000002</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.97499999999999998</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.996</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.999</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.997</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.997</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.97899999999999998</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-F2E0-40E8-9D1D-3244D86A677C}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$F$47</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>F measure (malware)</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent2"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>Sheet1!$A$48:$A$55</c:f>
+              <c:strCache>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>Random Forest</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>J48</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Naïve Bayes</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Simple Logistic</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>BayesNet</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>Stacking (NB + BN) (SL)</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>Voting ( NB + RF + SL) Maj/Avg</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$F$48:$F$55</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>0.95499999999999996</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.92800000000000005</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.67700000000000005</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.96</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.90100000000000002</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.90200000000000002</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.95799999999999996</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-F2E0-40E8-9D1D-3244D86A677C}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$G$47</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Roc at 0.1 FPR</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent3"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>Sheet1!$A$48:$A$55</c:f>
+              <c:strCache>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>Random Forest</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>J48</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Naïve Bayes</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Simple Logistic</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>BayesNet</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>Stacking (NB + BN) (SL)</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>Voting ( NB + RF + SL) Maj/Avg</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$G$48:$G$55</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>0.95579999999999998</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.93</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.96499999999999997</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.98499999999999999</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.97</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.98499999999999999</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.93500000000000005</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-F2E0-40E8-9D1D-3244D86A677C}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="219"/>
+        <c:overlap val="-27"/>
+        <c:axId val="1301351311"/>
+        <c:axId val="1306597887"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="1301351311"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1306597887"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="1306597887"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1301351311"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:autoTitleDeleted val="1"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$C$59</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Area Under ROC</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>Sheet1!$A$60:$A$65</c:f>
+              <c:strCache>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>Random Forest</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>J48</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Naïve Bayes</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Simple Logistic</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>SGD</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>BayesNet</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$C$60:$C$65</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>0.998</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.97499999999999998</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.995</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.99919999999999998</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.97599999999999998</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.997</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-BBD3-4BA6-AAB7-9241DE0907E4}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$F$59</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>F measure (malware)</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent2"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>Sheet1!$A$60:$A$65</c:f>
+              <c:strCache>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>Random Forest</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>J48</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Naïve Bayes</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Simple Logistic</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>SGD</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>BayesNet</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$F$60:$F$65</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>0.95</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.92800000000000005</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.66100000000000003</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.96299999999999997</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.997</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.8</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-BBD3-4BA6-AAB7-9241DE0907E4}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$G$59</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Roc at 0.1 FPR</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent3"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>Sheet1!$A$60:$A$65</c:f>
+              <c:strCache>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>Random Forest</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>J48</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Naïve Bayes</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Simple Logistic</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>SGD</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>BayesNet</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$G$60:$G$65</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>0.97</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.95</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.96499999999999997</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.98499999999999999</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.91</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.96</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-BBD3-4BA6-AAB7-9241DE0907E4}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="219"/>
+        <c:overlap val="-27"/>
+        <c:axId val="1199394511"/>
+        <c:axId val="1306619103"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="1199394511"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1306619103"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="1306619103"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1199394511"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:autoTitleDeleted val="1"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$C$81</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Area Under ROC</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>Sheet1!$A$82:$A$89</c:f>
+              <c:strCache>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>Random Forest</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>J48</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Naïve Bayes</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Simple Logistic</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>SGD</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>BayesNet</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>Stacking(RF + NB) (meta: J48)</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>Voting(RF+NB+SL+J48) AVG</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$C$82:$C$89</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>0.99399999999999999</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.98299999999999998</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.995</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.999</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.98599999999999999</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.93700000000000006</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.97399999999999998</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.999</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-2A31-4CDA-BAF9-04A3DFCD59A6}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$F$81</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>F measure (malware)</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent2"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>Sheet1!$A$82:$A$89</c:f>
+              <c:strCache>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>Random Forest</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>J48</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Naïve Bayes</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Simple Logistic</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>SGD</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>BayesNet</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>Stacking(RF + NB) (meta: J48)</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>Voting(RF+NB+SL+J48) AVG</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$F$82:$F$89</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>0.95599999999999996</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.95899999999999996</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.67200000000000004</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.94499999999999995</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.92500000000000004</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.92700000000000005</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.95799999999999996</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.95799999999999996</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-2A31-4CDA-BAF9-04A3DFCD59A6}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$G$81</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Roc at 0.1 FPR</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent3"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>Sheet1!$A$82:$A$89</c:f>
+              <c:strCache>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>Random Forest</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>J48</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Naïve Bayes</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Simple Logistic</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>SGD</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>BayesNet</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>Stacking(RF + NB) (meta: J48)</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>Voting(RF+NB+SL+J48) AVG</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$G$82:$G$89</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>0.97</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.94</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.96499999999999997</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.97</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.95</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.88</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.92</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.97499999999999998</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-2A31-4CDA-BAF9-04A3DFCD59A6}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="219"/>
+        <c:overlap val="-27"/>
+        <c:axId val="914962191"/>
+        <c:axId val="1306608287"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="914962191"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1306608287"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="1306608287"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="914962191"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart4.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-IN"/>
+              <a:t>Accuracy Comparison</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet2!$B$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Original Accuracy</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>Sheet2!$A$2:$A$7</c:f>
+              <c:strCache>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>Random Forest</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>J48</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Naïve Bayes</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Simple Logistic</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>BayesNet</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet2!$B$2:$B$7</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>99.2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>98.8</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>95.64</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>99.3</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>98.811999999999998</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-B537-4FA4-A1F8-EF9B0C4DB0B3}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet2!$C$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Accuracy (cols &gt;1.9%mv rmvd)</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent2"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>Sheet2!$A$2:$A$7</c:f>
+              <c:strCache>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>Random Forest</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>J48</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Naïve Bayes</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Simple Logistic</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>BayesNet</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet2!$C$2:$C$7</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>99.611999999999995</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>99.376999999999995</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>95.853999999999999</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>99.655000000000001</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>99.1</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-B537-4FA4-A1F8-EF9B0C4DB0B3}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet2!$D$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Accuracy (extra cols)</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent3"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>Sheet2!$A$2:$A$7</c:f>
+              <c:strCache>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>Random Forest</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>J48</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Naïve Bayes</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Simple Logistic</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>BayesNet</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet2!$D$2:$D$7</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>99.576999999999998</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>99.38</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>95.55</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>99.679000000000002</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>97.84</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-B537-4FA4-A1F8-EF9B0C4DB0B3}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="219"/>
+        <c:overlap val="-27"/>
+        <c:axId val="1742126304"/>
+        <c:axId val="1743635648"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="1742126304"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1743635648"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="1743635648"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1742126304"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart5.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-IN"/>
+              <a:t>F-Measure Comparison</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet2!$B$13</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Original F-Measure</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>Sheet2!$A$14:$A$18</c:f>
+              <c:strCache>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>Random Forest</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>J48</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Naïve Bayes</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Simple Logistic</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>BayesNet</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet2!$B$14:$B$18</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>99.2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>98.8</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>95.64</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>99.3</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>98.811999999999998</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-5F79-433B-B87C-9B1CFB9690FD}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet2!$C$13</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>F-Measure (cols &gt;1.9%mv rmvd)</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent2"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>Sheet2!$A$14:$A$18</c:f>
+              <c:strCache>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>Random Forest</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>J48</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Naïve Bayes</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Simple Logistic</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>BayesNet</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet2!$C$14:$C$18</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>99.611999999999995</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>99.376999999999995</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>95.853999999999999</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>99.655000000000001</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>99.1</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-5F79-433B-B87C-9B1CFB9690FD}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet2!$D$13</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>F-Measure (extra cols)</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent3"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>Sheet2!$A$14:$A$18</c:f>
+              <c:strCache>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>Random Forest</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>J48</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Naïve Bayes</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Simple Logistic</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>BayesNet</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet2!$D$14:$D$18</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>99.576999999999998</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>99.38</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>95.55</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>99.679000000000002</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>97.84</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-5F79-433B-B87C-9B1CFB9690FD}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="219"/>
+        <c:overlap val="-27"/>
+        <c:axId val="1752150528"/>
+        <c:axId val="1743626496"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="1752150528"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1743626496"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="1743626496"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1752150528"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors3.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors4.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors5.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style3.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style4.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style5.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
 </file>
 
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -354,6 +5679,191 @@
         </a:fontRef>
       </xdr:style>
     </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>99</xdr:row>
+      <xdr:rowOff>83820</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>769620</xdr:colOff>
+      <xdr:row>115</xdr:row>
+      <xdr:rowOff>175260</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="4" name="Chart 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{06E93735-F68D-4175-9ED4-9B7214A1B990}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>7620</xdr:colOff>
+      <xdr:row>99</xdr:row>
+      <xdr:rowOff>175260</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>266700</xdr:colOff>
+      <xdr:row>114</xdr:row>
+      <xdr:rowOff>175260</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="5" name="Chart 4">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{CB2932D6-F197-4B07-8105-0BB32C1749A6}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>117</xdr:row>
+      <xdr:rowOff>175260</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>266700</xdr:colOff>
+      <xdr:row>133</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="6" name="Chart 5">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0EA89F9B-5B23-4342-8C33-E95716AE5883}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId3"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>236220</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>541020</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Chart 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{84167265-FAB7-4707-854A-089B1E283B64}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>205740</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>167640</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>510540</xdr:colOff>
+      <xdr:row>31</xdr:row>
+      <xdr:rowOff>167640</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="3" name="Chart 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1D688DDF-1DE9-4991-90BA-B72195D2BF22}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
 </xdr:wsDr>
@@ -501,6 +6011,29 @@
 </table>
 </file>
 
+<file path=xl/tables/table16.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="8" xr:uid="{7A989615-EDD0-475C-A1BD-71CF575AFEBD}" name="Table8" displayName="Table8" ref="A1:D7" totalsRowShown="0">
+  <autoFilter ref="A1:D7" xr:uid="{24C25D90-943B-4573-947B-42FA07389B2A}">
+    <filterColumn colId="0">
+      <filters>
+        <filter val="BayesNet"/>
+        <filter val="J48"/>
+        <filter val="Naïve Bayes"/>
+        <filter val="Random Forest"/>
+        <filter val="Simple Logistic"/>
+      </filters>
+    </filterColumn>
+  </autoFilter>
+  <tableColumns count="4">
+    <tableColumn id="1" xr3:uid="{7DF98B21-8FAE-421C-827F-519F916D8C38}" name="MLtechniques/Results" dataDxfId="1"/>
+    <tableColumn id="2" xr3:uid="{D6B29035-9DDF-4A15-BB6F-AD0C8D428576}" name="Original Accuracy"/>
+    <tableColumn id="3" xr3:uid="{BFB016AD-9711-4BE4-8A31-ACCB77CBFE52}" name="Accuracy (cols &gt;1.9%mv rmvd)" dataDxfId="0" dataCellStyle="Percent"/>
+    <tableColumn id="4" xr3:uid="{DFFC7C1B-9319-4919-88BE-24F70B992EE4}" name="Accuracy (extra cols)"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{EFC9D375-6446-4BB6-AE94-5363DB5D671B}" name="Table13" displayName="Table13" ref="A24:G30" totalsRowShown="0">
   <autoFilter ref="A24:G30" xr:uid="{FCA96D7F-0560-400F-B1F4-3CD7F005A36C}"/>
@@ -535,10 +6068,22 @@
 
 <file path=xl/tables/table4.xml><?xml version="1.0" encoding="utf-8"?>
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{8AECEA66-3E84-42B1-8E79-41053778A714}" name="Table15" displayName="Table15" ref="A47:G55" totalsRowShown="0">
-  <autoFilter ref="A47:G55" xr:uid="{AE00303E-82D0-421D-A327-23C4D32314AC}"/>
+  <autoFilter ref="A47:G55" xr:uid="{AE00303E-82D0-421D-A327-23C4D32314AC}">
+    <filterColumn colId="0">
+      <filters>
+        <filter val="BayesNet"/>
+        <filter val="J48"/>
+        <filter val="Naïve Bayes"/>
+        <filter val="Random Forest"/>
+        <filter val="Simple Logistic"/>
+        <filter val="Stacking (NB + BN) (SimpleLogistic)"/>
+        <filter val="Voting( NB + RF + SL) Maj/Avg"/>
+      </filters>
+    </filterColumn>
+  </autoFilter>
   <tableColumns count="7">
     <tableColumn id="1" xr3:uid="{21C6E372-A85E-4C37-9A47-8ECE45D54EFA}" name="MLtechniques/Results"/>
-    <tableColumn id="2" xr3:uid="{703DD7C7-210A-4F79-A2DE-3B7A43A3B326}" name="Accuracy"/>
+    <tableColumn id="2" xr3:uid="{703DD7C7-210A-4F79-A2DE-3B7A43A3B326}" name="Accuracy" dataDxfId="2" dataCellStyle="Percent"/>
     <tableColumn id="3" xr3:uid="{8A19A767-997A-46B6-857F-09707AF12C21}" name="Area Under ROC"/>
     <tableColumn id="4" xr3:uid="{94A6905C-281F-49D7-A648-3620800674C5}" name="FPR"/>
     <tableColumn id="5" xr3:uid="{4B593E1C-20D5-48F0-AA26-98DD3ABB128B}" name="TPR"/>
@@ -898,8 +6443,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:T98"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A45" workbookViewId="0">
-      <selection activeCell="C94" sqref="C94"/>
+    <sheetView tabSelected="1" topLeftCell="A68" workbookViewId="0">
+      <selection activeCell="C43" sqref="C43"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -917,53 +6462,53 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:20" ht="21" x14ac:dyDescent="0.4">
-      <c r="A1" s="8" t="s">
-        <v>54</v>
-      </c>
-      <c r="B1" s="8"/>
-      <c r="C1" s="8"/>
-      <c r="D1" s="8"/>
-      <c r="E1" s="8"/>
-      <c r="F1" s="8"/>
-      <c r="G1" s="8"/>
-      <c r="H1" s="8"/>
-      <c r="I1" s="8"/>
-      <c r="J1" s="8"/>
-      <c r="K1" s="8"/>
-      <c r="L1" s="8"/>
-      <c r="M1" s="8"/>
-      <c r="N1" s="8"/>
-      <c r="O1" s="8"/>
-      <c r="P1" s="8"/>
-      <c r="Q1" s="8"/>
-      <c r="R1" s="8"/>
-      <c r="S1" s="8"/>
-      <c r="T1" s="8"/>
+      <c r="A1" s="9" t="s">
+        <v>51</v>
+      </c>
+      <c r="B1" s="9"/>
+      <c r="C1" s="9"/>
+      <c r="D1" s="9"/>
+      <c r="E1" s="9"/>
+      <c r="F1" s="9"/>
+      <c r="G1" s="9"/>
+      <c r="H1" s="9"/>
+      <c r="I1" s="9"/>
+      <c r="J1" s="9"/>
+      <c r="K1" s="9"/>
+      <c r="L1" s="9"/>
+      <c r="M1" s="9"/>
+      <c r="N1" s="9"/>
+      <c r="O1" s="9"/>
+      <c r="P1" s="9"/>
+      <c r="Q1" s="9"/>
+      <c r="R1" s="9"/>
+      <c r="S1" s="9"/>
+      <c r="T1" s="9"/>
     </row>
     <row r="5" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A5" s="3" t="s">
+      <c r="A5" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="B5" s="3"/>
-      <c r="C5" s="3"/>
-      <c r="D5" s="3"/>
-      <c r="E5" s="3"/>
-      <c r="F5" s="3"/>
+      <c r="B5" s="4"/>
+      <c r="C5" s="4"/>
+      <c r="D5" s="4"/>
+      <c r="E5" s="4"/>
+      <c r="F5" s="4"/>
       <c r="G5" s="1"/>
-      <c r="I5" s="3" t="s">
-        <v>53</v>
-      </c>
-      <c r="J5" s="4"/>
-      <c r="K5" s="4"/>
-      <c r="L5" s="4"/>
-      <c r="M5" s="4"/>
-      <c r="N5" s="4"/>
-      <c r="O5" s="4"/>
-      <c r="P5" s="4"/>
-      <c r="Q5" s="4"/>
-      <c r="R5" s="4"/>
-      <c r="S5" s="4"/>
-      <c r="T5" s="4"/>
+      <c r="I5" s="4" t="s">
+        <v>50</v>
+      </c>
+      <c r="J5" s="5"/>
+      <c r="K5" s="5"/>
+      <c r="L5" s="5"/>
+      <c r="M5" s="5"/>
+      <c r="N5" s="5"/>
+      <c r="O5" s="5"/>
+      <c r="P5" s="5"/>
+      <c r="Q5" s="5"/>
+      <c r="R5" s="5"/>
+      <c r="S5" s="5"/>
+      <c r="T5" s="5"/>
     </row>
     <row r="6" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
@@ -1004,20 +6549,20 @@
       <c r="F7">
         <v>0.66600000000000004</v>
       </c>
-      <c r="I7" s="5" t="s">
-        <v>20</v>
-      </c>
-      <c r="J7" s="5"/>
-      <c r="K7" s="5"/>
-      <c r="L7" s="5"/>
-      <c r="M7" s="5"/>
-      <c r="N7" s="5"/>
-      <c r="O7" s="5"/>
-      <c r="P7" s="5"/>
-      <c r="Q7" s="5"/>
-      <c r="R7" s="5"/>
-      <c r="S7" s="5"/>
-      <c r="T7" s="5"/>
+      <c r="I7" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="J7" s="6"/>
+      <c r="K7" s="6"/>
+      <c r="L7" s="6"/>
+      <c r="M7" s="6"/>
+      <c r="N7" s="6"/>
+      <c r="O7" s="6"/>
+      <c r="P7" s="6"/>
+      <c r="Q7" s="6"/>
+      <c r="R7" s="6"/>
+      <c r="S7" s="6"/>
+      <c r="T7" s="6"/>
     </row>
     <row r="8" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
@@ -1038,20 +6583,20 @@
       <c r="F8">
         <v>0.94</v>
       </c>
-      <c r="I8" s="6" t="s">
-        <v>42</v>
-      </c>
-      <c r="J8" s="6"/>
-      <c r="K8" s="6"/>
-      <c r="L8" s="6"/>
-      <c r="M8" s="6"/>
-      <c r="N8" s="6"/>
-      <c r="O8" s="6"/>
-      <c r="P8" s="6"/>
-      <c r="Q8" s="6"/>
-      <c r="R8" s="6"/>
-      <c r="S8" s="6"/>
-      <c r="T8" s="6"/>
+      <c r="I8" s="7" t="s">
+        <v>41</v>
+      </c>
+      <c r="J8" s="7"/>
+      <c r="K8" s="7"/>
+      <c r="L8" s="7"/>
+      <c r="M8" s="7"/>
+      <c r="N8" s="7"/>
+      <c r="O8" s="7"/>
+      <c r="P8" s="7"/>
+      <c r="Q8" s="7"/>
+      <c r="R8" s="7"/>
+      <c r="S8" s="7"/>
+      <c r="T8" s="7"/>
     </row>
     <row r="9" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
@@ -1072,20 +6617,20 @@
       <c r="F9">
         <v>0.92500000000000004</v>
       </c>
-      <c r="I9" s="7" t="s">
-        <v>43</v>
-      </c>
-      <c r="J9" s="7"/>
-      <c r="K9" s="7"/>
-      <c r="L9" s="7"/>
-      <c r="M9" s="7"/>
-      <c r="N9" s="7"/>
-      <c r="O9" s="7"/>
-      <c r="P9" s="7"/>
-      <c r="Q9" s="7"/>
-      <c r="R9" s="7"/>
-      <c r="S9" s="7"/>
-      <c r="T9" s="7"/>
+      <c r="I9" s="8" t="s">
+        <v>42</v>
+      </c>
+      <c r="J9" s="8"/>
+      <c r="K9" s="8"/>
+      <c r="L9" s="8"/>
+      <c r="M9" s="8"/>
+      <c r="N9" s="8"/>
+      <c r="O9" s="8"/>
+      <c r="P9" s="8"/>
+      <c r="Q9" s="8"/>
+      <c r="R9" s="8"/>
+      <c r="S9" s="8"/>
+      <c r="T9" s="8"/>
     </row>
     <row r="10" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
@@ -1108,15 +6653,15 @@
       </c>
     </row>
     <row r="13" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A13" s="3" t="s">
+      <c r="A13" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="B13" s="3"/>
-      <c r="C13" s="3"/>
-      <c r="D13" s="3"/>
-      <c r="E13" s="3"/>
-      <c r="F13" s="3"/>
-      <c r="G13" s="3"/>
+      <c r="B13" s="4"/>
+      <c r="C13" s="4"/>
+      <c r="D13" s="4"/>
+      <c r="E13" s="4"/>
+      <c r="F13" s="4"/>
+      <c r="G13" s="4"/>
     </row>
     <row r="14" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
@@ -1187,40 +6732,40 @@
         <v>0.88</v>
       </c>
       <c r="I16" t="s">
+        <v>20</v>
+      </c>
+      <c r="J16" t="s">
         <v>21</v>
       </c>
-      <c r="J16" t="s">
+      <c r="K16" t="s">
         <v>22</v>
       </c>
-      <c r="K16" t="s">
+      <c r="L16" t="s">
         <v>23</v>
       </c>
-      <c r="L16" t="s">
+      <c r="M16" t="s">
         <v>24</v>
       </c>
-      <c r="M16" t="s">
+      <c r="N16" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="O16" t="s">
         <v>25</v>
       </c>
-      <c r="N16" s="2" t="s">
+      <c r="P16" s="2" t="s">
         <v>45</v>
       </c>
-      <c r="O16" t="s">
+      <c r="Q16" t="s">
         <v>26</v>
       </c>
-      <c r="P16" s="2" t="s">
+      <c r="R16" s="2" t="s">
         <v>46</v>
       </c>
-      <c r="Q16" t="s">
+      <c r="S16" t="s">
         <v>27</v>
       </c>
-      <c r="R16" s="2" t="s">
+      <c r="T16" s="2" t="s">
         <v>47</v>
-      </c>
-      <c r="S16" t="s">
-        <v>28</v>
-      </c>
-      <c r="T16" s="2" t="s">
-        <v>48</v>
       </c>
     </row>
     <row r="17" spans="1:20" x14ac:dyDescent="0.3">
@@ -1246,7 +6791,7 @@
         <v>0.75</v>
       </c>
       <c r="I17" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="J17">
         <v>99.558800000000005</v>
@@ -1255,31 +6800,31 @@
         <v>99.376800000000003</v>
       </c>
       <c r="L17" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="M17">
         <v>95.680499999999995</v>
       </c>
       <c r="N17" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="O17">
         <v>99.649799999999999</v>
       </c>
       <c r="P17" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="Q17">
         <v>99.395700000000005</v>
       </c>
       <c r="R17" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="S17">
         <v>98.945899999999995</v>
       </c>
       <c r="T17" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="18" spans="1:20" x14ac:dyDescent="0.3">
@@ -1305,37 +6850,37 @@
         <v>0.94</v>
       </c>
       <c r="I18" t="s">
+        <v>31</v>
+      </c>
+      <c r="J18" t="s">
+        <v>23</v>
+      </c>
+      <c r="K18" t="s">
         <v>32</v>
       </c>
-      <c r="J18" t="s">
-        <v>24</v>
-      </c>
-      <c r="K18" t="s">
+      <c r="L18" t="s">
+        <v>23</v>
+      </c>
+      <c r="M18" t="s">
+        <v>32</v>
+      </c>
+      <c r="N18" t="s">
+        <v>23</v>
+      </c>
+      <c r="O18" t="s">
         <v>33</v>
       </c>
-      <c r="L18" t="s">
-        <v>24</v>
-      </c>
-      <c r="M18" t="s">
-        <v>33</v>
-      </c>
-      <c r="N18" t="s">
-        <v>24</v>
-      </c>
-      <c r="O18" t="s">
-        <v>34</v>
-      </c>
       <c r="P18" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="Q18" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="R18" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="S18" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="19" spans="1:20" x14ac:dyDescent="0.3">
@@ -1385,15 +6930,15 @@
       </c>
     </row>
     <row r="23" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A23" s="3" t="s">
+      <c r="A23" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="B23" s="3"/>
-      <c r="C23" s="3"/>
-      <c r="D23" s="3"/>
-      <c r="E23" s="3"/>
-      <c r="F23" s="3"/>
-      <c r="G23" s="3"/>
+      <c r="B23" s="4"/>
+      <c r="C23" s="4"/>
+      <c r="D23" s="4"/>
+      <c r="E23" s="4"/>
+      <c r="F23" s="4"/>
+      <c r="G23" s="4"/>
     </row>
     <row r="24" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
@@ -1464,40 +7009,40 @@
         <v>0.9</v>
       </c>
       <c r="I26" t="s">
+        <v>20</v>
+      </c>
+      <c r="J26" t="s">
         <v>21</v>
       </c>
-      <c r="J26" t="s">
+      <c r="K26" t="s">
         <v>22</v>
       </c>
-      <c r="K26" t="s">
+      <c r="L26" t="s">
         <v>23</v>
       </c>
-      <c r="L26" t="s">
+      <c r="M26" t="s">
         <v>24</v>
       </c>
-      <c r="M26" t="s">
+      <c r="N26" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="O26" t="s">
         <v>25</v>
       </c>
-      <c r="N26" s="2" t="s">
+      <c r="P26" s="2" t="s">
         <v>45</v>
       </c>
-      <c r="O26" t="s">
+      <c r="Q26" t="s">
         <v>26</v>
       </c>
-      <c r="P26" s="2" t="s">
+      <c r="R26" s="2" t="s">
         <v>46</v>
       </c>
-      <c r="Q26" t="s">
+      <c r="S26" t="s">
         <v>27</v>
       </c>
-      <c r="R26" s="2" t="s">
+      <c r="T26" s="2" t="s">
         <v>47</v>
-      </c>
-      <c r="S26" t="s">
-        <v>28</v>
-      </c>
-      <c r="T26" s="2" t="s">
-        <v>48</v>
       </c>
     </row>
     <row r="27" spans="1:20" x14ac:dyDescent="0.3">
@@ -1523,7 +7068,7 @@
         <v>0.75</v>
       </c>
       <c r="I27" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="J27">
         <v>99.545000000000002</v>
@@ -1532,31 +7077,31 @@
         <v>99.441999999999993</v>
       </c>
       <c r="L27" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="M27">
         <v>95.646100000000004</v>
       </c>
       <c r="N27" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="O27">
         <v>99.601699999999994</v>
       </c>
       <c r="P27" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="Q27">
         <v>99.531300000000002</v>
       </c>
       <c r="R27" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="S27">
         <v>98.811999999999998</v>
       </c>
       <c r="T27" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="28" spans="1:20" x14ac:dyDescent="0.3">
@@ -1582,37 +7127,37 @@
         <v>0.95</v>
       </c>
       <c r="I28" t="s">
+        <v>31</v>
+      </c>
+      <c r="J28" t="s">
+        <v>23</v>
+      </c>
+      <c r="K28" t="s">
         <v>32</v>
       </c>
-      <c r="J28" t="s">
-        <v>24</v>
-      </c>
-      <c r="K28" t="s">
+      <c r="L28" t="s">
+        <v>23</v>
+      </c>
+      <c r="M28" t="s">
+        <v>32</v>
+      </c>
+      <c r="N28" t="s">
+        <v>23</v>
+      </c>
+      <c r="O28" t="s">
         <v>33</v>
       </c>
-      <c r="L28" t="s">
-        <v>24</v>
-      </c>
-      <c r="M28" t="s">
-        <v>33</v>
-      </c>
-      <c r="N28" t="s">
-        <v>24</v>
-      </c>
-      <c r="O28" t="s">
-        <v>34</v>
-      </c>
       <c r="P28" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="Q28" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="R28" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="S28" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="29" spans="1:20" x14ac:dyDescent="0.3">
@@ -1662,15 +7207,15 @@
       </c>
     </row>
     <row r="34" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A34" s="3" t="s">
+      <c r="A34" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="B34" s="3"/>
-      <c r="C34" s="3"/>
-      <c r="D34" s="3"/>
-      <c r="E34" s="3"/>
-      <c r="F34" s="3"/>
-      <c r="G34" s="3"/>
+      <c r="B34" s="4"/>
+      <c r="C34" s="4"/>
+      <c r="D34" s="4"/>
+      <c r="E34" s="4"/>
+      <c r="F34" s="4"/>
+      <c r="G34" s="4"/>
     </row>
     <row r="35" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A35" t="s">
@@ -1741,40 +7286,40 @@
         <v>0.85</v>
       </c>
       <c r="I37" t="s">
+        <v>20</v>
+      </c>
+      <c r="J37" t="s">
         <v>21</v>
       </c>
-      <c r="J37" t="s">
+      <c r="K37" t="s">
         <v>22</v>
       </c>
-      <c r="K37" t="s">
+      <c r="L37" t="s">
         <v>23</v>
       </c>
-      <c r="L37" t="s">
+      <c r="M37" t="s">
         <v>24</v>
       </c>
-      <c r="M37" t="s">
+      <c r="N37" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="O37" t="s">
         <v>25</v>
       </c>
-      <c r="N37" s="2" t="s">
+      <c r="P37" s="2" t="s">
         <v>45</v>
       </c>
-      <c r="O37" t="s">
+      <c r="Q37" t="s">
         <v>26</v>
       </c>
-      <c r="P37" s="2" t="s">
+      <c r="R37" s="2" t="s">
         <v>46</v>
       </c>
-      <c r="Q37" t="s">
+      <c r="S37" t="s">
         <v>27</v>
       </c>
-      <c r="R37" s="2" t="s">
+      <c r="T37" s="2" t="s">
         <v>47</v>
-      </c>
-      <c r="S37" t="s">
-        <v>28</v>
-      </c>
-      <c r="T37" s="2" t="s">
-        <v>48</v>
       </c>
     </row>
     <row r="38" spans="1:20" x14ac:dyDescent="0.3">
@@ -1800,7 +7345,7 @@
         <v>0.75</v>
       </c>
       <c r="I38" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="J38">
         <v>99.555300000000003</v>
@@ -1809,31 +7354,31 @@
         <v>99.163899999999998</v>
       </c>
       <c r="L38" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="M38">
         <v>82.132999999999996</v>
       </c>
       <c r="N38" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="O38">
         <v>92.279399999999995</v>
       </c>
       <c r="P38" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="Q38">
         <v>93.034800000000004</v>
       </c>
       <c r="R38" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="S38">
         <v>99.144999999999996</v>
       </c>
       <c r="T38" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="39" spans="1:20" x14ac:dyDescent="0.3">
@@ -1859,37 +7404,37 @@
         <v>0.35</v>
       </c>
       <c r="I39" t="s">
+        <v>31</v>
+      </c>
+      <c r="J39" t="s">
+        <v>23</v>
+      </c>
+      <c r="K39" t="s">
         <v>32</v>
       </c>
-      <c r="J39" t="s">
-        <v>24</v>
-      </c>
-      <c r="K39" t="s">
-        <v>33</v>
-      </c>
       <c r="L39" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="M39" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="N39" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="O39" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="P39" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="Q39" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="R39" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="S39" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="40" spans="1:20" x14ac:dyDescent="0.3">
@@ -1939,15 +7484,15 @@
       </c>
     </row>
     <row r="46" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A46" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="B46" s="3"/>
-      <c r="C46" s="3"/>
-      <c r="D46" s="3"/>
-      <c r="E46" s="3"/>
-      <c r="F46" s="3"/>
-      <c r="G46" s="3"/>
+      <c r="A46" s="4" t="s">
+        <v>52</v>
+      </c>
+      <c r="B46" s="4"/>
+      <c r="C46" s="4"/>
+      <c r="D46" s="4"/>
+      <c r="E46" s="4"/>
+      <c r="F46" s="4"/>
+      <c r="G46" s="4"/>
     </row>
     <row r="47" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A47" t="s">
@@ -1976,10 +7521,10 @@
       <c r="A48" t="s">
         <v>4</v>
       </c>
-      <c r="B48">
+      <c r="B48" s="3">
         <v>99.611999999999995</v>
       </c>
-      <c r="C48">
+      <c r="C48" s="3">
         <v>0.99680000000000002</v>
       </c>
       <c r="D48">
@@ -1995,50 +7540,50 @@
         <v>0.95579999999999998</v>
       </c>
       <c r="I48" t="s">
+        <v>20</v>
+      </c>
+      <c r="J48" t="s">
         <v>21</v>
       </c>
-      <c r="J48" t="s">
+      <c r="K48" t="s">
         <v>22</v>
       </c>
-      <c r="K48" t="s">
+      <c r="L48" t="s">
         <v>23</v>
       </c>
-      <c r="L48" t="s">
+      <c r="M48" t="s">
         <v>24</v>
       </c>
-      <c r="M48" t="s">
+      <c r="N48" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="O48" t="s">
         <v>25</v>
       </c>
-      <c r="N48" s="2" t="s">
+      <c r="P48" s="2" t="s">
         <v>45</v>
       </c>
-      <c r="O48" t="s">
+      <c r="Q48" t="s">
         <v>26</v>
       </c>
-      <c r="P48" s="2" t="s">
+      <c r="R48" s="2" t="s">
         <v>46</v>
       </c>
-      <c r="Q48" t="s">
+      <c r="S48" t="s">
         <v>27</v>
       </c>
-      <c r="R48" s="2" t="s">
+      <c r="T48" s="2" t="s">
         <v>47</v>
-      </c>
-      <c r="S48" t="s">
-        <v>28</v>
-      </c>
-      <c r="T48" s="2" t="s">
-        <v>48</v>
       </c>
     </row>
     <row r="49" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A49" t="s">
         <v>6</v>
       </c>
-      <c r="B49">
+      <c r="B49" s="3">
         <v>99.376999999999995</v>
       </c>
-      <c r="C49">
+      <c r="C49" s="3">
         <v>0.97499999999999998</v>
       </c>
       <c r="D49">
@@ -2054,7 +7599,7 @@
         <v>0.93</v>
       </c>
       <c r="I49" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="J49">
         <v>99.611999999999995</v>
@@ -2063,41 +7608,41 @@
         <v>99.376800000000003</v>
       </c>
       <c r="L49" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="M49">
         <v>95.853899999999996</v>
       </c>
       <c r="N49" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="O49">
         <v>99.654899999999998</v>
       </c>
       <c r="P49" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="Q49">
         <v>99.395700000000005</v>
       </c>
       <c r="R49" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="S49">
         <v>99.064300000000003</v>
       </c>
       <c r="T49" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="50" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A50" t="s">
         <v>8</v>
       </c>
-      <c r="B50">
+      <c r="B50" s="3">
         <v>95.853999999999999</v>
       </c>
-      <c r="C50">
+      <c r="C50" s="3">
         <v>0.996</v>
       </c>
       <c r="D50">
@@ -2110,50 +7655,50 @@
         <v>0.67700000000000005</v>
       </c>
       <c r="G50">
-        <v>0.98</v>
+        <v>0.96499999999999997</v>
       </c>
       <c r="I50" t="s">
+        <v>31</v>
+      </c>
+      <c r="J50" t="s">
+        <v>23</v>
+      </c>
+      <c r="K50" t="s">
         <v>32</v>
       </c>
-      <c r="J50" t="s">
-        <v>24</v>
-      </c>
-      <c r="K50" t="s">
+      <c r="L50" t="s">
+        <v>23</v>
+      </c>
+      <c r="M50" t="s">
+        <v>32</v>
+      </c>
+      <c r="N50" t="s">
+        <v>23</v>
+      </c>
+      <c r="O50" t="s">
         <v>33</v>
       </c>
-      <c r="L50" t="s">
-        <v>24</v>
-      </c>
-      <c r="M50" t="s">
-        <v>33</v>
-      </c>
-      <c r="N50" t="s">
-        <v>24</v>
-      </c>
-      <c r="O50" t="s">
-        <v>34</v>
-      </c>
       <c r="P50" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="Q50" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="R50" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="S50" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="51" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A51" t="s">
         <v>10</v>
       </c>
-      <c r="B51">
+      <c r="B51" s="3">
         <v>99.655000000000001</v>
       </c>
-      <c r="C51">
+      <c r="C51" s="3">
         <v>0.999</v>
       </c>
       <c r="D51">
@@ -2169,11 +7714,11 @@
         <v>0.98499999999999999</v>
       </c>
     </row>
-    <row r="52" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
       <c r="A52" t="s">
         <v>11</v>
       </c>
-      <c r="B52">
+      <c r="B52" s="3">
         <v>99.4</v>
       </c>
       <c r="C52">
@@ -2196,10 +7741,10 @@
       <c r="A53" t="s">
         <v>16</v>
       </c>
-      <c r="B53">
+      <c r="B53" s="3">
         <v>99.1</v>
       </c>
-      <c r="C53">
+      <c r="C53" s="3">
         <v>0.997</v>
       </c>
       <c r="D53">
@@ -2212,17 +7757,17 @@
         <v>0.90100000000000002</v>
       </c>
       <c r="G53">
-        <v>0.98</v>
+        <v>0.97</v>
       </c>
     </row>
     <row r="54" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A54" t="s">
-        <v>50</v>
-      </c>
-      <c r="B54">
+        <v>59</v>
+      </c>
+      <c r="B54" s="3">
         <v>99.1</v>
       </c>
-      <c r="C54">
+      <c r="C54" s="3">
         <v>0.997</v>
       </c>
       <c r="D54">
@@ -2235,17 +7780,17 @@
         <v>0.90200000000000002</v>
       </c>
       <c r="G54">
-        <v>0.99</v>
+        <v>0.98499999999999999</v>
       </c>
     </row>
     <row r="55" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A55" t="s">
-        <v>51</v>
-      </c>
-      <c r="B55">
+        <v>60</v>
+      </c>
+      <c r="B55" s="3">
         <v>99.634299999999996</v>
       </c>
-      <c r="C55">
+      <c r="C55" s="3">
         <v>0.97899999999999998</v>
       </c>
       <c r="D55">
@@ -2262,15 +7807,15 @@
       </c>
     </row>
     <row r="58" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A58" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="B58" s="3"/>
-      <c r="C58" s="3"/>
-      <c r="D58" s="3"/>
-      <c r="E58" s="3"/>
-      <c r="F58" s="3"/>
-      <c r="G58" s="3"/>
+      <c r="A58" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="B58" s="4"/>
+      <c r="C58" s="4"/>
+      <c r="D58" s="4"/>
+      <c r="E58" s="4"/>
+      <c r="F58" s="4"/>
+      <c r="G58" s="4"/>
     </row>
     <row r="59" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A59" t="s">
@@ -2315,7 +7860,7 @@
         <v>0.95</v>
       </c>
       <c r="G60">
-        <v>0.98</v>
+        <v>0.97</v>
       </c>
     </row>
     <row r="61" spans="1:20" x14ac:dyDescent="0.3">
@@ -2341,40 +7886,40 @@
         <v>0.95</v>
       </c>
       <c r="I61" t="s">
+        <v>20</v>
+      </c>
+      <c r="J61" t="s">
         <v>21</v>
       </c>
-      <c r="J61" t="s">
+      <c r="K61" t="s">
         <v>22</v>
       </c>
-      <c r="K61" t="s">
+      <c r="L61" t="s">
         <v>23</v>
       </c>
-      <c r="L61" t="s">
+      <c r="M61" t="s">
         <v>24</v>
       </c>
-      <c r="M61" t="s">
+      <c r="N61" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="O61" t="s">
         <v>25</v>
       </c>
-      <c r="N61" s="2" t="s">
+      <c r="P61" s="2" t="s">
         <v>45</v>
       </c>
-      <c r="O61" t="s">
+      <c r="Q61" t="s">
         <v>26</v>
       </c>
-      <c r="P61" s="2" t="s">
+      <c r="R61" s="2" t="s">
         <v>46</v>
       </c>
-      <c r="Q61" t="s">
+      <c r="S61" t="s">
         <v>27</v>
       </c>
-      <c r="R61" s="2" t="s">
+      <c r="T61" s="2" t="s">
         <v>47</v>
-      </c>
-      <c r="S61" t="s">
-        <v>28</v>
-      </c>
-      <c r="T61" s="2" t="s">
-        <v>48</v>
       </c>
     </row>
     <row r="62" spans="1:20" x14ac:dyDescent="0.3">
@@ -2397,10 +7942,10 @@
         <v>0.66100000000000003</v>
       </c>
       <c r="G62">
-        <v>0.99</v>
+        <v>0.96499999999999997</v>
       </c>
       <c r="I62" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="J62">
         <v>99.577699999999993</v>
@@ -2409,31 +7954,31 @@
         <v>99.376800000000003</v>
       </c>
       <c r="L62" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="M62">
         <v>95.548299999999998</v>
       </c>
       <c r="N62" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="O62">
         <v>99.679000000000002</v>
       </c>
       <c r="P62" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="Q62">
         <v>99.435199999999995</v>
       </c>
       <c r="R62" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="S62">
         <v>97.835099999999997</v>
       </c>
       <c r="T62" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="63" spans="1:20" x14ac:dyDescent="0.3">
@@ -2456,40 +8001,40 @@
         <v>0.96299999999999997</v>
       </c>
       <c r="G63">
-        <v>0.99</v>
+        <v>0.98499999999999999</v>
       </c>
       <c r="I63" t="s">
+        <v>31</v>
+      </c>
+      <c r="J63" t="s">
+        <v>23</v>
+      </c>
+      <c r="K63" t="s">
         <v>32</v>
       </c>
-      <c r="J63" t="s">
-        <v>24</v>
-      </c>
-      <c r="K63" t="s">
+      <c r="L63" t="s">
+        <v>23</v>
+      </c>
+      <c r="M63" t="s">
+        <v>32</v>
+      </c>
+      <c r="N63" t="s">
+        <v>23</v>
+      </c>
+      <c r="O63" t="s">
         <v>33</v>
       </c>
-      <c r="L63" t="s">
-        <v>24</v>
-      </c>
-      <c r="M63" t="s">
-        <v>33</v>
-      </c>
-      <c r="N63" t="s">
-        <v>24</v>
-      </c>
-      <c r="O63" t="s">
-        <v>34</v>
-      </c>
       <c r="P63" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="Q63" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="R63" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="S63" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="64" spans="1:20" x14ac:dyDescent="0.3">
@@ -2535,19 +8080,19 @@
         <v>0.8</v>
       </c>
       <c r="G65">
-        <v>0.97499999999999998</v>
+        <v>0.96</v>
       </c>
     </row>
     <row r="69" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A69" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="B69" s="3"/>
-      <c r="C69" s="3"/>
-      <c r="D69" s="3"/>
-      <c r="E69" s="3"/>
-      <c r="F69" s="3"/>
-      <c r="G69" s="3"/>
+      <c r="A69" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="B69" s="4"/>
+      <c r="C69" s="4"/>
+      <c r="D69" s="4"/>
+      <c r="E69" s="4"/>
+      <c r="F69" s="4"/>
+      <c r="G69" s="4"/>
     </row>
     <row r="70" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A70" t="s">
@@ -2592,7 +8137,7 @@
         <v>0.94199999999999995</v>
       </c>
       <c r="G71">
-        <v>0.98499999999999999</v>
+        <v>0.94499999999999995</v>
       </c>
     </row>
     <row r="72" spans="1:20" x14ac:dyDescent="0.3">
@@ -2618,40 +8163,40 @@
         <v>0.88</v>
       </c>
       <c r="I72" t="s">
+        <v>20</v>
+      </c>
+      <c r="J72" t="s">
         <v>21</v>
       </c>
-      <c r="J72" t="s">
+      <c r="K72" t="s">
         <v>22</v>
       </c>
-      <c r="K72" t="s">
+      <c r="L72" t="s">
         <v>23</v>
       </c>
-      <c r="L72" t="s">
+      <c r="M72" t="s">
         <v>24</v>
       </c>
-      <c r="M72" t="s">
+      <c r="N72" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="O72" t="s">
         <v>25</v>
       </c>
-      <c r="N72" s="2" t="s">
+      <c r="P72" s="2" t="s">
         <v>45</v>
       </c>
-      <c r="O72" t="s">
+      <c r="Q72" t="s">
         <v>26</v>
       </c>
-      <c r="P72" s="2" t="s">
+      <c r="R72" s="2" t="s">
         <v>46</v>
       </c>
-      <c r="Q72" t="s">
+      <c r="S72" t="s">
         <v>27</v>
       </c>
-      <c r="R72" s="2" t="s">
+      <c r="T72" s="2" t="s">
         <v>47</v>
-      </c>
-      <c r="S72" t="s">
-        <v>28</v>
-      </c>
-      <c r="T72" s="2" t="s">
-        <v>48</v>
       </c>
     </row>
     <row r="73" spans="1:20" x14ac:dyDescent="0.3">
@@ -2674,10 +8219,10 @@
         <v>0.60099999999999998</v>
       </c>
       <c r="G73">
-        <v>0.97499999999999998</v>
+        <v>0.96</v>
       </c>
       <c r="I73" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="J73">
         <v>99.515900000000002</v>
@@ -2686,31 +8231,31 @@
         <v>99.107200000000006</v>
       </c>
       <c r="L73" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="M73">
         <v>94.226299999999995</v>
       </c>
       <c r="N73" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="O73">
         <v>99.208500000000001</v>
       </c>
       <c r="P73" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="Q73">
         <v>99.002499999999998</v>
       </c>
       <c r="R73" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="S73">
         <v>99.617099999999994</v>
       </c>
       <c r="T73" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="74" spans="1:20" x14ac:dyDescent="0.3">
@@ -2733,40 +8278,40 @@
         <v>0.90200000000000002</v>
       </c>
       <c r="G74">
-        <v>0.94</v>
+        <v>0.95</v>
       </c>
       <c r="I74" t="s">
+        <v>31</v>
+      </c>
+      <c r="J74" t="s">
+        <v>23</v>
+      </c>
+      <c r="K74" t="s">
         <v>32</v>
       </c>
-      <c r="J74" t="s">
-        <v>24</v>
-      </c>
-      <c r="K74" t="s">
+      <c r="L74" t="s">
+        <v>23</v>
+      </c>
+      <c r="M74" t="s">
+        <v>32</v>
+      </c>
+      <c r="N74" t="s">
+        <v>23</v>
+      </c>
+      <c r="O74" t="s">
+        <v>32</v>
+      </c>
+      <c r="P74" t="s">
+        <v>23</v>
+      </c>
+      <c r="Q74" t="s">
+        <v>32</v>
+      </c>
+      <c r="R74" t="s">
+        <v>23</v>
+      </c>
+      <c r="S74" t="s">
         <v>33</v>
-      </c>
-      <c r="L74" t="s">
-        <v>24</v>
-      </c>
-      <c r="M74" t="s">
-        <v>33</v>
-      </c>
-      <c r="N74" t="s">
-        <v>24</v>
-      </c>
-      <c r="O74" t="s">
-        <v>33</v>
-      </c>
-      <c r="P74" t="s">
-        <v>24</v>
-      </c>
-      <c r="Q74" t="s">
-        <v>33</v>
-      </c>
-      <c r="R74" t="s">
-        <v>24</v>
-      </c>
-      <c r="S74" t="s">
-        <v>34</v>
       </c>
     </row>
     <row r="75" spans="1:20" x14ac:dyDescent="0.3">
@@ -2812,19 +8357,19 @@
         <v>0.95499999999999996</v>
       </c>
       <c r="G76">
-        <v>0.98</v>
+        <v>0.97</v>
       </c>
     </row>
     <row r="80" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A80" s="3" t="s">
-        <v>44</v>
-      </c>
-      <c r="B80" s="3"/>
-      <c r="C80" s="3"/>
-      <c r="D80" s="3"/>
-      <c r="E80" s="3"/>
-      <c r="F80" s="3"/>
-      <c r="G80" s="3"/>
+      <c r="A80" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="B80" s="4"/>
+      <c r="C80" s="4"/>
+      <c r="D80" s="4"/>
+      <c r="E80" s="4"/>
+      <c r="F80" s="4"/>
+      <c r="G80" s="4"/>
     </row>
     <row r="81" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A81" t="s">
@@ -2869,7 +8414,7 @@
         <v>0.95599999999999996</v>
       </c>
       <c r="G82">
-        <v>0.98</v>
+        <v>0.97</v>
       </c>
     </row>
     <row r="83" spans="1:20" x14ac:dyDescent="0.3">
@@ -2895,40 +8440,40 @@
         <v>0.94</v>
       </c>
       <c r="I83" t="s">
+        <v>20</v>
+      </c>
+      <c r="J83" t="s">
         <v>21</v>
       </c>
-      <c r="J83" t="s">
+      <c r="K83" t="s">
         <v>22</v>
       </c>
-      <c r="K83" t="s">
+      <c r="L83" t="s">
         <v>23</v>
       </c>
-      <c r="L83" t="s">
+      <c r="M83" t="s">
         <v>24</v>
       </c>
-      <c r="M83" t="s">
+      <c r="N83" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="O83" t="s">
         <v>25</v>
       </c>
-      <c r="N83" s="2" t="s">
+      <c r="P83" s="2" t="s">
         <v>45</v>
       </c>
-      <c r="O83" t="s">
+      <c r="Q83" t="s">
         <v>26</v>
       </c>
-      <c r="P83" s="2" t="s">
+      <c r="R83" s="2" t="s">
         <v>46</v>
       </c>
-      <c r="Q83" t="s">
+      <c r="S83" t="s">
         <v>27</v>
       </c>
-      <c r="R83" s="2" t="s">
+      <c r="T83" s="2" t="s">
         <v>47</v>
-      </c>
-      <c r="S83" t="s">
-        <v>28</v>
-      </c>
-      <c r="T83" s="2" t="s">
-        <v>48</v>
       </c>
     </row>
     <row r="84" spans="1:20" x14ac:dyDescent="0.3">
@@ -2954,7 +8499,7 @@
         <v>0.96499999999999997</v>
       </c>
       <c r="I84" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="J84">
         <v>99.622299999999996</v>
@@ -2963,31 +8508,31 @@
         <v>99.642899999999997</v>
       </c>
       <c r="L84" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="M84">
         <v>95.774900000000002</v>
       </c>
       <c r="N84" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="O84">
         <v>99.381900000000002</v>
       </c>
       <c r="P84" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="Q84">
         <v>99.402500000000003</v>
       </c>
       <c r="R84" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="S84">
         <v>99.539900000000003</v>
       </c>
       <c r="T84" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="85" spans="1:20" x14ac:dyDescent="0.3">
@@ -3013,37 +8558,37 @@
         <v>0.97</v>
       </c>
       <c r="I85" t="s">
+        <v>31</v>
+      </c>
+      <c r="J85" t="s">
+        <v>23</v>
+      </c>
+      <c r="K85" t="s">
+        <v>33</v>
+      </c>
+      <c r="L85" t="s">
+        <v>23</v>
+      </c>
+      <c r="M85" t="s">
         <v>32</v>
       </c>
-      <c r="J85" t="s">
-        <v>24</v>
-      </c>
-      <c r="K85" t="s">
-        <v>34</v>
-      </c>
-      <c r="L85" t="s">
-        <v>24</v>
-      </c>
-      <c r="M85" t="s">
-        <v>33</v>
-      </c>
       <c r="N85" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="O85" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="P85" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="Q85" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="R85" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="S85" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="86" spans="1:20" x14ac:dyDescent="0.3">
@@ -3094,7 +8639,7 @@
     </row>
     <row r="88" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A88" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B88">
         <v>99.632599999999996</v>
@@ -3117,7 +8662,7 @@
     </row>
     <row r="89" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A89" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="B89">
         <v>99.641199999999998</v>
@@ -3135,60 +8680,60 @@
         <v>0.95799999999999996</v>
       </c>
       <c r="G89">
-        <v>0.98</v>
+        <v>0.97499999999999998</v>
       </c>
     </row>
     <row r="92" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A92" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="93" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A93" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B93" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="94" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A94" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B94" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="95" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A95" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B95" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="96" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A96" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B96" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
     <row r="97" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A97" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B97" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
     </row>
     <row r="98" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A98" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B98" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
     </row>
   </sheetData>
@@ -3228,4 +8773,211 @@
     <tablePart r:id="rId17"/>
   </tableParts>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{20A91889-8C03-4D59-ADA9-6F83455E5314}">
+  <dimension ref="A1:D18"/>
+  <sheetViews>
+    <sheetView topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="D25" sqref="D25"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="21.5546875" customWidth="1"/>
+    <col min="2" max="2" width="17.44140625" customWidth="1"/>
+    <col min="3" max="3" width="28.5546875" customWidth="1"/>
+    <col min="4" max="4" width="25" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B1" s="11" t="s">
+        <v>53</v>
+      </c>
+      <c r="C1" s="11" t="s">
+        <v>54</v>
+      </c>
+      <c r="D1" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A2" s="13" t="s">
+        <v>4</v>
+      </c>
+      <c r="B2">
+        <v>99.2</v>
+      </c>
+      <c r="C2" s="3">
+        <v>99.611999999999995</v>
+      </c>
+      <c r="D2">
+        <v>99.576999999999998</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A3" s="16" t="s">
+        <v>6</v>
+      </c>
+      <c r="B3">
+        <v>98.8</v>
+      </c>
+      <c r="C3" s="3">
+        <v>99.376999999999995</v>
+      </c>
+      <c r="D3">
+        <v>99.38</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A4" s="13" t="s">
+        <v>8</v>
+      </c>
+      <c r="B4">
+        <v>95.64</v>
+      </c>
+      <c r="C4" s="3">
+        <v>95.853999999999999</v>
+      </c>
+      <c r="D4">
+        <v>95.55</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A5" s="16" t="s">
+        <v>10</v>
+      </c>
+      <c r="B5">
+        <v>99.3</v>
+      </c>
+      <c r="C5" s="3">
+        <v>99.655000000000001</v>
+      </c>
+      <c r="D5">
+        <v>99.679000000000002</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A6" s="13" t="s">
+        <v>11</v>
+      </c>
+      <c r="B6">
+        <v>99.1</v>
+      </c>
+      <c r="C6" s="3">
+        <v>99.4</v>
+      </c>
+      <c r="D6">
+        <v>99.44</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A7" s="16" t="s">
+        <v>16</v>
+      </c>
+      <c r="B7">
+        <v>98.811999999999998</v>
+      </c>
+      <c r="C7" s="3">
+        <v>99.1</v>
+      </c>
+      <c r="D7">
+        <v>97.84</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A13" s="10" t="s">
+        <v>9</v>
+      </c>
+      <c r="B13" s="11" t="s">
+        <v>56</v>
+      </c>
+      <c r="C13" s="11" t="s">
+        <v>57</v>
+      </c>
+      <c r="D13" s="12" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A14" s="13" t="s">
+        <v>4</v>
+      </c>
+      <c r="B14" s="14">
+        <v>99.2</v>
+      </c>
+      <c r="C14" s="19">
+        <v>99.611999999999995</v>
+      </c>
+      <c r="D14" s="15">
+        <v>99.576999999999998</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A15" s="16" t="s">
+        <v>6</v>
+      </c>
+      <c r="B15" s="17">
+        <v>98.8</v>
+      </c>
+      <c r="C15" s="20">
+        <v>99.376999999999995</v>
+      </c>
+      <c r="D15" s="18">
+        <v>99.38</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A16" s="13" t="s">
+        <v>8</v>
+      </c>
+      <c r="B16" s="14">
+        <v>95.64</v>
+      </c>
+      <c r="C16" s="19">
+        <v>95.853999999999999</v>
+      </c>
+      <c r="D16" s="15">
+        <v>95.55</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A17" s="16" t="s">
+        <v>10</v>
+      </c>
+      <c r="B17" s="17">
+        <v>99.3</v>
+      </c>
+      <c r="C17" s="20">
+        <v>99.655000000000001</v>
+      </c>
+      <c r="D17" s="18">
+        <v>99.679000000000002</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A18" s="13" t="s">
+        <v>16</v>
+      </c>
+      <c r="B18" s="14">
+        <v>98.811999999999998</v>
+      </c>
+      <c r="C18" s="19">
+        <v>99.1</v>
+      </c>
+      <c r="D18" s="15">
+        <v>97.84</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+  <tableParts count="1">
+    <tablePart r:id="rId2"/>
+  </tableParts>
+</worksheet>
 </file>